--- a/data/trans_bre/P17G_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R2-Edad-trans_bre.xlsx
@@ -660,23 +660,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9418953421731087</v>
+        <v>-0.8960698176421011</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.180953947785828</v>
+        <v>-2.054253964419745</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.491498695807455</v>
+        <v>-1.480926880108235</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.482397545716861</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>-0.904270928726686</v>
-      </c>
+        <v>-2.360701284819012</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
         <v>-1</v>
       </c>
@@ -690,23 +686,21 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.513175936597067</v>
+        <v>1.479452402382166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.159192862066425</v>
+        <v>0.9638295776334307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.019709452581958</v>
+        <v>1.109063740831174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.231880961872498</v>
+        <v>2.201519064117304</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
-        <v>2.512023137103681</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>4.531853495483904</v>
+        <v>4.567858226458521</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -731,7 +725,7 @@
         <v>0.2621928443583246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9672060353291264</v>
+        <v>0.9672060353291261</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6739109689196298</v>
@@ -743,7 +737,7 @@
         <v>0.1226251156137329</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5343718778204314</v>
+        <v>0.5343718778204313</v>
       </c>
     </row>
     <row r="8">
@@ -754,28 +748,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5692237807985634</v>
+        <v>-0.5317231325143722</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6127964519273535</v>
+        <v>-0.5103261831152741</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.538256547610343</v>
+        <v>-1.562435444452184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.364759033667243</v>
+        <v>-1.382156024238951</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4920317987617156</v>
+        <v>-0.4193035768041228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6452437442889549</v>
+        <v>-0.5200587744249235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5182244561887532</v>
+        <v>-0.5478729399913872</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5158394546243554</v>
+        <v>-0.5464700840619291</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +780,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.22004373221245</v>
+        <v>2.233559259768941</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.803432409307601</v>
+        <v>1.801339705414216</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.209031099877503</v>
+        <v>2.334621657855069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.031155040266814</v>
+        <v>3.209750132662252</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.375819254105538</v>
+        <v>4.155676626995768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.975004225203948</v>
+        <v>4.017782868863209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.975751096198516</v>
+        <v>1.728905527114448</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.348138306234564</v>
+        <v>4.249554269113331</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +825,7 @@
         <v>0.4423916692152525</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2218344404906845</v>
+        <v>0.2218344404906848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2413368584130842</v>
@@ -843,7 +837,7 @@
         <v>0.3297191401192347</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1020404913148832</v>
+        <v>0.1020404913148834</v>
       </c>
     </row>
     <row r="11">
@@ -854,28 +848,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.158000710986863</v>
+        <v>-1.1761398979236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5508789352811007</v>
+        <v>-0.6941627341752725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.905255104170449</v>
+        <v>-1.163063513671692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.655782686112325</v>
+        <v>-1.715498147724806</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6231840776535585</v>
+        <v>-0.6574479022880573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5127057290121902</v>
+        <v>-0.5217935500414718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4865451460564781</v>
+        <v>-0.55917856141758</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5142778128370898</v>
+        <v>-0.5193660334481666</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +880,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.647570978096962</v>
+        <v>1.636454592012871</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.996580434475724</v>
+        <v>2.049525199324013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.829120778600032</v>
+        <v>1.730068234604831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.624207029655917</v>
+        <v>1.650872800794158</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.452360050672959</v>
+        <v>2.367729962614797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.763809385121815</v>
+        <v>3.704410655291182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.560742848088156</v>
+        <v>2.345101585556905</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.320672715727945</v>
+        <v>1.146957302793357</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +925,7 @@
         <v>-0.712172352021595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7856694876184358</v>
+        <v>0.7856694876184362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3469276403965211</v>
@@ -943,7 +937,7 @@
         <v>-0.2828076478910543</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3754105245968524</v>
+        <v>0.3754105245968527</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9605077460289447</v>
+        <v>-0.8755456365967431</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.350607525344039</v>
+        <v>-2.30403027091447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.489612277620134</v>
+        <v>-2.574997280540038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.8706702369911844</v>
+        <v>-0.6558835355856599</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5352689277728946</v>
+        <v>-0.4781277627902293</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7139009210602283</v>
+        <v>-0.7144487520897914</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.308447407210068</v>
+        <v>-0.2519450071621507</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.146864415332974</v>
+        <v>2.350005844041767</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1533755923348585</v>
+        <v>0.1555871504597366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.043818277932046</v>
+        <v>0.9303105952646445</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.185962110139666</v>
+        <v>2.336496259704853</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.443318990391049</v>
+        <v>3.007651110928139</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6914405469338881</v>
+        <v>0.6988125102119511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8037545799351116</v>
+        <v>0.6277728503478893</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.780134159994524</v>
+        <v>1.8704542480532</v>
       </c>
     </row>
     <row r="16">
@@ -1054,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.663420788976203</v>
+        <v>-2.368648948932153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.550017170355193</v>
+        <v>-3.589287151666694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.542422586719814</v>
+        <v>-1.657816573613424</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.412608376281946</v>
+        <v>-0.3050735112555779</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6921972718724716</v>
+        <v>-0.6678466919082662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.9266905289953887</v>
+        <v>-0.92694590700256</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5439363198810137</v>
+        <v>-0.6102833038681429</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2768224957268414</v>
+        <v>-0.2271547089085077</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.173841117919013</v>
+        <v>2.259021040593731</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.248485984874918</v>
+        <v>0.377028455398344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.612026137863787</v>
+        <v>2.361122409688436</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.210099418647259</v>
+        <v>2.222756939707269</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.583380063543444</v>
+        <v>1.413078650900415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5468762483943722</v>
+        <v>0.6436624720197351</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.941730662854136</v>
+        <v>1.887641469183713</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.930413191701237</v>
+        <v>3.170648945235017</v>
       </c>
     </row>
     <row r="19">
@@ -1154,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.858378538513824</v>
+        <v>-3.016434663267408</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.051998477869609</v>
+        <v>-2.94741215285478</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.5995437383759955</v>
+        <v>-0.7072755554070262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.616512899573206</v>
+        <v>-2.883107294151724</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8741075557087069</v>
+        <v>-0.8607508519094694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9043148724596792</v>
+        <v>-0.785389880183459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4297854319920356</v>
+        <v>-0.5676457404642655</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7116352547149971</v>
+        <v>-0.7488659110414706</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1180,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.326839905203638</v>
+        <v>1.125559661922725</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.84408821738551</v>
+        <v>1.893591506382307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.692498023318852</v>
+        <v>3.903178930431066</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5663806582564863</v>
+        <v>0.5421281598146023</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.793528125681734</v>
+        <v>1.282354353707509</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.120039387025634</v>
+        <v>2.345735778935897</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.456093080608346</v>
+        <v>8.942411931651671</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4311913382075592</v>
+        <v>0.3462426086095284</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1225,7 @@
         <v>-1.127386683974604</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9265149590114721</v>
+        <v>0.9265149590114716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.326784164884911</v>
@@ -1243,7 +1237,7 @@
         <v>-0.5339466227932783</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.7852836932779396</v>
+        <v>0.785283693277939</v>
       </c>
     </row>
     <row r="23">
@@ -1254,24 +1248,24 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.12486942414603</v>
+        <v>-3.240091214964938</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1547217387139257</v>
+        <v>-0.05816244508598133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.569614400941663</v>
+        <v>-3.619922981541356</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6775157486594366</v>
+        <v>-0.7834640166445861</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9315481785355598</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3858432153487699</v>
+        <v>-0.4150908426056376</v>
       </c>
     </row>
     <row r="24">
@@ -1282,24 +1276,24 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.265430183485406</v>
+        <v>1.242546465259195</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.096493530691159</v>
+        <v>2.91239310868652</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8485063402064466</v>
+        <v>0.8268512526415044</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.346614570289228</v>
+        <v>2.325828780493724</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="n">
-        <v>2.366109674188503</v>
+        <v>1.799024028954883</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>4.661518876751921</v>
+        <v>4.107886475023971</v>
       </c>
     </row>
     <row r="25">
@@ -1323,7 +1317,7 @@
         <v>0.0369061901695434</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4734684298905386</v>
+        <v>0.4734684298905389</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1490827385849957</v>
@@ -1335,7 +1329,7 @@
         <v>0.02028607909593055</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.2610566689032258</v>
+        <v>0.261056668903226</v>
       </c>
     </row>
     <row r="26">
@@ -1346,28 +1340,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.4646357294095455</v>
+        <v>-0.3848203739732481</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.6019281386795089</v>
+        <v>-0.5618628698213886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.6808452095455033</v>
+        <v>-0.6429397907601114</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.2203854984861064</v>
+        <v>-0.1984742052035822</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2713260475983441</v>
+        <v>-0.2252154699396737</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3829794393082378</v>
+        <v>-0.3680474390655257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3085905359040731</v>
+        <v>-0.3014772734567676</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1038532542457892</v>
+        <v>-0.08782055508526376</v>
       </c>
     </row>
     <row r="27">
@@ -1378,28 +1372,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8431822729316172</v>
+        <v>0.8500888539953249</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5087160294370076</v>
+        <v>0.5530740453791868</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7407258673577215</v>
+        <v>0.6693208928799785</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.062723178576275</v>
+        <v>1.142040874000611</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7403889762558946</v>
+        <v>0.7741163243168638</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5138286038318826</v>
+        <v>0.5917937482197816</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5331380442872095</v>
+        <v>0.4485123377964519</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7444710388670878</v>
+        <v>0.7955137558248253</v>
       </c>
     </row>
     <row r="28">
